--- a/intejira.xlsx
+++ b/intejira.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="SF_saletestpack" sheetId="2" r:id="rId2"/>
-    <x:sheet name="SF_salcontact" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Salesforce_saletestpack" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Salesforce_salcontact" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
